--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27690" windowHeight="14445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,31 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Scene" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Scene.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SceneID</t>
+    <t>MaxGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxGroupPlayers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelivePos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -45,7 +57,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RelivePos</t>
+    <t>SoundList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,29 +65,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxGroupPlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FilePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoundList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene0</t>
-  </si>
-  <si>
-    <t>Scene1</t>
-  </si>
-  <si>
-    <t>Scene2</t>
+    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
+  </si>
+  <si>
+    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/RebellerNoob/</t>
+  </si>
+  <si>
+    <t>-0.7,1.5,-1.64</t>
   </si>
   <si>
     <t>Login</t>
@@ -87,13 +83,16 @@
     <t>NewerScene</t>
   </si>
   <si>
-    <t>-0.7,1.5,-1.64</t>
-  </si>
-  <si>
-    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
-  </si>
-  <si>
-    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/RebellerNoob/</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,16 +171,16 @@
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
               <xsd:complexType>
+                <xsd:attribute name="FilePath" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="MaxGroup" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="MaxGroupPlayers" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="RelivePos" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="SceneID" form="unqualified" type="xsd:integer"/>
                 <xsd:attribute name="SceneName" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="SceneShowName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="RelivePos" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="SoundList" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="Width" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="MaxGroup" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="MaxGroupPlayers" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="FilePath" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="SoundList" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -196,38 +195,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J4" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J4"/>
-  <tableColumns count="10">
-    <tableColumn id="1" uniqueName="ID" name="ID">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I4" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:I4"/>
+  <tableColumns count="9">
+    <tableColumn id="1" uniqueName="FilePath" name="FilePath">
+      <xmlColumnPr mapId="1" xpath="/XML/Object/@FilePath" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="SceneID" name="SceneID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@SceneID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="SceneName" name="SceneName">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@SceneName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="SceneShowName" name="SceneShowName">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@SceneShowName" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="MaxGroup" name="MaxGroup">
+      <xmlColumnPr mapId="1" xpath="/XML/Object/@MaxGroup" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="MaxGroupPlayers" name="MaxGroupPlayers">
+      <xmlColumnPr mapId="1" xpath="/XML/Object/@MaxGroupPlayers" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="RelivePos" name="RelivePos">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@RelivePos" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Width" name="Width">
+    <tableColumn id="7" uniqueName="SceneName" name="SceneName">
+      <xmlColumnPr mapId="1" xpath="/XML/Object/@SceneName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="SceneShowName" name="SceneShowName">
+      <xmlColumnPr mapId="1" xpath="/XML/Object/@SceneShowName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="SoundList" name="SoundList">
+      <xmlColumnPr mapId="1" xpath="/XML/Object/@SoundList" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="Width" name="Width">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Width" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="MaxGroup" name="MaxGroup">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@MaxGroup" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="MaxGroupPlayers" name="MaxGroupPlayers">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@MaxGroupPlayers" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="FilePath" name="FilePath">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@FilePath" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="SoundList" name="SoundList">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@SoundList" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -497,27 +493,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J2:J4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,99 +540,87 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2">
+        <v>500</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3">
         <v>500</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>200</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+      <c r="H4" s="1"/>
+      <c r="I4">
         <v>500</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,24 +74,30 @@
     <t>-0.7,1.5,-1.64</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Stage001</t>
-  </si>
-  <si>
     <t>NewerScene</t>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/CloneScene/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newscene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +502,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,7 +549,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -558,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2">
@@ -573,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -585,10 +591,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3">
@@ -600,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -612,10 +618,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>newscene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanClone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,9 +209,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I4" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:I4"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K4" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K4"/>
+  <tableColumns count="11">
     <tableColumn id="1" uniqueName="FilePath" name="FilePath">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@FilePath" xmlDataType="string"/>
     </tableColumn>
@@ -231,6 +239,8 @@
     <tableColumn id="10" uniqueName="Width" name="Width">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Width" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="6" uniqueName="6" name="CanClone"/>
+    <tableColumn id="11" uniqueName="11" name="ActorID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,9 +526,10 @@
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +557,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -573,8 +590,14 @@
       <c r="I2">
         <v>500</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -600,8 +623,14 @@
       <c r="I3">
         <v>500</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,13 +655,20 @@
       <c r="H4" s="1"/>
       <c r="I4">
         <v>500</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -71,12 +71,6 @@
     <t>../../NFDataCfg/Ini/NFZoneServer/Scene/RebellerNoob/</t>
   </si>
   <si>
-    <t>-0.7,1.5,-1.64</t>
-  </si>
-  <si>
-    <t>NewerScene</t>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,19 +87,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newscene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ActorID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CanClone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186,12,88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +165,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -227,7 +233,7 @@
     <tableColumn id="5" uniqueName="RelivePos" name="RelivePos">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@RelivePos" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="SceneName" name="SceneName">
+    <tableColumn id="7" uniqueName="SceneName" name="SceneName" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@SceneName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="SceneShowName" name="SceneShowName">
@@ -512,7 +518,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,18 +564,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -578,13 +584,13 @@
         <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2">
@@ -602,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -611,13 +617,13 @@
         <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3">
@@ -635,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -644,13 +650,13 @@
         <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,7 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>186,12,88</t>
+    <t>186,6.89,88</t>
+  </si>
+  <si>
+    <t>186,6.89,88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +620,7 @@
         <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -107,10 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>186,6.89,88</t>
-  </si>
-  <si>
-    <t>186,6.89,88</t>
+    <t>186,0,88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186,0,88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +522,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>FilePath</t>
   </si>
@@ -58,18 +62,9 @@
     <t>ActorID</t>
   </si>
   <si>
-    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/CloneScene/</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>186,0,88</t>
   </si>
   <si>
-    <t>Scene2</t>
-  </si>
-  <si>
     <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
   </si>
   <si>
@@ -79,32 +74,22 @@
     <t>villageScene</t>
   </si>
   <si>
-    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/RebellerNoob/</t>
+    <t>Demo1</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>SelectScene</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Demo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -112,7 +97,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -134,23 +119,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -162,14 +132,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,6 +443,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -500,15 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -522,7 +497,7 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,12 +532,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -571,12 +546,12 @@
         <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1"/>
@@ -584,16 +559,13 @@
         <v>500</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -604,13 +576,13 @@
         <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3">
@@ -623,74 +595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7">
-      <c r="G6" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -81,7 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20,0,60</t>
+    <t>-20,0,-60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,13 +595,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G4" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>FilePath</t>
   </si>
@@ -62,34 +57,62 @@
     <t>ActorID</t>
   </si>
   <si>
+    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-20,0,-60</t>
+  </si>
+  <si>
+    <t>villageScene</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>186,0,88</t>
   </si>
   <si>
-    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>villageScene</t>
-  </si>
-  <si>
     <t>Demo1</t>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-20,0,-60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>3</t>
+  </si>
+  <si>
+    <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
+  </si>
+  <si>
+    <t>DemoSummer</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DemoWinter</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>34.10933,1.165174,11.49214</t>
+  </si>
+  <si>
+    <t>Demo2_towers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -97,7 +120,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -119,8 +142,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -132,19 +170,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -443,18 +476,17 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -476,20 +508,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -497,7 +530,7 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,12 +565,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -546,7 +579,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -565,9 +598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -576,13 +609,13 @@
         <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3">
@@ -595,10 +628,102 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -63,7 +63,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>-20,0,-60</t>
+    <t>20,0,-137</t>
   </si>
   <si>
     <t>villageScene</t>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -513,7 +513,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>FilePath</t>
   </si>
@@ -100,19 +105,17 @@
   </si>
   <si>
     <t>Demo2_towers</t>
+  </si>
+  <si>
+    <t>Sources/Music/Town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,7 +123,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -142,23 +145,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -170,14 +158,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -476,6 +469,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -508,15 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -525,12 +518,12 @@
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -587,7 +580,9 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I2">
         <v>500</v>
       </c>
@@ -598,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -617,7 +612,9 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I3">
         <v>500</v>
       </c>
@@ -628,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -648,7 +645,9 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I4">
         <v>500</v>
       </c>
@@ -659,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -679,7 +678,9 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I5">
         <v>500</v>
       </c>
@@ -690,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -710,7 +711,9 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I6">
         <v>500</v>
       </c>
@@ -722,8 +725,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>FilePath</t>
   </si>
@@ -109,6 +109,13 @@
   <si>
     <t>Sources/Music/Town</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectScene</t>
   </si>
 </sst>
 </file>
@@ -503,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,6 +731,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>FilePath</t>
   </si>
@@ -116,13 +116,37 @@
   </si>
   <si>
     <t>SelectScene</t>
+  </si>
+  <si>
+    <t>LoadingUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/ChronoBlade_Caster_wallpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UI/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ChronoBlade_forest_wallpaper</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -132,6 +156,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -157,11 +188,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,12 +562,13 @@
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="27.25" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,20 +590,23 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -588,19 +629,22 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>500</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -620,19 +664,22 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>500</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -652,20 +699,23 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>500</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -685,20 +735,23 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>500</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -719,19 +772,22 @@
         <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>500</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -752,15 +808,18 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>500</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>FilePath</t>
   </si>
@@ -50,9 +45,18 @@
     <t>SceneShowName</t>
   </si>
   <si>
+    <t>LoadingUI</t>
+  </si>
+  <si>
     <t>SoundList</t>
   </si>
   <si>
+    <t>CamOffestPos</t>
+  </si>
+  <si>
+    <t>CamOffestRot</t>
+  </si>
+  <si>
     <t>Width</t>
   </si>
   <si>
@@ -74,6 +78,18 @@
     <t>villageScene</t>
   </si>
   <si>
+    <t>UI/ChronoBlade_Caster_wallpaper</t>
+  </si>
+  <si>
+    <t>Sources/Music/Town</t>
+  </si>
+  <si>
+    <t>0,8,7</t>
+  </si>
+  <si>
+    <t>45,180</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -92,41 +108,13 @@
     <t>DemoSummer</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>DemoWinter</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>34.10933,1.165174,11.49214</t>
-  </si>
-  <si>
-    <t>Demo2_towers</t>
-  </si>
-  <si>
-    <t>Sources/Music/Town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectScene</t>
-  </si>
-  <si>
-    <t>LoadingUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/ChronoBlade_Caster_wallpaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>UI/</t>
     </r>
     <r>
@@ -134,19 +122,50 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChronoBlade_forest_wallpaper</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-8,7</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DemoWinter</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>34.10933,1.165174,11.49214</t>
+  </si>
+  <si>
+    <t>Demo2_towers</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>SelectScene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -154,15 +173,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -183,8 +195,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -192,29 +219,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -513,7 +535,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -546,14 +567,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -563,12 +585,12 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="9" max="11" width="27.25" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,28 +612,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -619,34 +647,40 @@
       <c r="D2">
         <v>200</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
         <v>500</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+    <row r="3" spans="2:14">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -654,35 +688,41 @@
       <c r="D3">
         <v>200</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
         <v>500</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -690,35 +730,41 @@
       <c r="D4">
         <v>200</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -726,35 +772,41 @@
       <c r="D5">
         <v>200</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5">
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
         <v>500</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -762,35 +814,41 @@
       <c r="D6">
         <v>200</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
         <v>500</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -798,35 +856,40 @@
       <c r="D7">
         <v>200</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
         <v>500</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>FilePath</t>
   </si>
@@ -128,12 +133,6 @@
     </r>
   </si>
   <si>
-    <t>0,-8,7</t>
-  </si>
-  <si>
-    <t>45,0</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -153,19 +152,19 @@
   </si>
   <si>
     <t>SelectScene</t>
+  </si>
+  <si>
+    <t>45,90</t>
+  </si>
+  <si>
+    <t>-7,8,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,7 +172,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -195,23 +194,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -229,14 +213,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -535,6 +524,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -567,15 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -590,7 +579,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -678,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
@@ -719,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -746,10 +735,10 @@
         <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -761,10 +750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -776,10 +765,10 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
@@ -803,10 +792,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -815,13 +804,13 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -845,10 +834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -857,13 +846,13 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -888,7 +877,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>FilePath</t>
   </si>
@@ -89,19 +84,25 @@
     <t>Sources/Music/Town</t>
   </si>
   <si>
+    <t>0,4.2,5.5</t>
+  </si>
+  <si>
+    <t>25,180</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>186,0,88</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
     <t>0,8,7</t>
   </si>
   <si>
     <t>45,180</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>186,0,88</t>
-  </si>
-  <si>
-    <t>Demo1</t>
   </si>
   <si>
     <t>3</t>
@@ -133,6 +134,12 @@
     </r>
   </si>
   <si>
+    <t>-7,8,0</t>
+  </si>
+  <si>
+    <t>45,90</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -152,19 +159,19 @@
   </si>
   <si>
     <t>SelectScene</t>
-  </si>
-  <si>
-    <t>45,90</t>
-  </si>
-  <si>
-    <t>-7,8,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -172,7 +179,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -194,8 +201,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -213,19 +235,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -524,7 +541,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -557,14 +573,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -579,7 +596,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -667,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
@@ -693,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -708,10 +725,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -720,25 +737,25 @@
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -750,10 +767,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -762,25 +779,25 @@
         <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -792,10 +809,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -804,13 +821,13 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -819,10 +836,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -834,10 +851,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -846,13 +863,13 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -861,10 +878,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -877,8 +894,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>FilePath</t>
   </si>
@@ -82,12 +87,6 @@
   </si>
   <si>
     <t>Sources/Music/Town</t>
-  </si>
-  <si>
-    <t>0,4.2,5.5</t>
-  </si>
-  <si>
-    <t>25,180</t>
   </si>
   <si>
     <t>2</t>
@@ -160,18 +159,16 @@
   <si>
     <t>SelectScene</t>
   </si>
+  <si>
+    <t>0,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -179,7 +176,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -201,23 +198,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -235,14 +217,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -541,6 +528,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -573,15 +561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.25" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -596,7 +583,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -669,10 +656,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -684,9 +671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -695,13 +682,13 @@
         <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -710,10 +697,10 @@
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -725,10 +712,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -737,25 +724,25 @@
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -767,10 +754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -779,25 +766,25 @@
         <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -809,10 +796,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -821,13 +808,13 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -836,10 +823,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -851,10 +838,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -863,13 +850,13 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -878,10 +865,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -894,8 +881,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>FilePath</t>
   </si>
@@ -151,16 +151,35 @@
     <t>34.10933,1.165174,11.49214</t>
   </si>
   <si>
-    <t>Demo2_towers</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>SelectScene</t>
   </si>
   <si>
-    <t>0,8,7</t>
+    <t>City</t>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.25436,1.283986,20.56763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4.2,5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4.2,-5.5</t>
+  </si>
+  <si>
+    <t>25,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,17 +668,17 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -690,8 +709,8 @@
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
@@ -808,13 +827,13 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -823,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -841,7 +860,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -853,10 +872,10 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -118,6 +118,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>UI/</t>
@@ -127,6 +128,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ChronoBlade_forest_wallpaper</t>
@@ -187,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -197,6 +199,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -584,7 +594,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +861,7 @@
         <v>500</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,14 +583,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="58.25" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="58.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
@@ -604,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -691,7 +691,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3">
@@ -732,10 +732,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="C4">
         <v>10</v>
       </c>
@@ -774,10 +774,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5">
         <v>10</v>
       </c>
@@ -816,10 +816,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B6" s="2"/>
       <c r="C6">
         <v>10</v>
       </c>
@@ -858,10 +858,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="C7">
         <v>10</v>
       </c>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>FilePath</t>
   </si>
@@ -168,18 +168,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,4.2,5.5</t>
+    <t>0,8,-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,4.2,-5.5</t>
-  </si>
-  <si>
-    <t>25,0</t>
+    <t>45,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,10 +668,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -842,10 +835,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>500</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +15,21 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>FilePath</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>MaxGroup</t>
   </si>
   <si>
@@ -71,46 +66,16 @@
     <t>ActorID</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20,0,-137</t>
+    <t>0,0,0</t>
   </si>
   <si>
     <t>villageScene</t>
-  </si>
-  <si>
-    <t>UI/ChronoBlade_Caster_wallpaper</t>
-  </si>
-  <si>
-    <t>Sources/Music/Town</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>186,0,88</t>
-  </si>
-  <si>
-    <t>Demo1</t>
-  </si>
-  <si>
-    <t>0,8,7</t>
-  </si>
-  <si>
-    <t>45,180</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
-  </si>
-  <si>
-    <t>DemoSummer</t>
   </si>
   <si>
     <r>
@@ -133,6 +98,33 @@
     </r>
   </si>
   <si>
+    <t>Sources/Music/Town</t>
+  </si>
+  <si>
+    <t>0,8,7</t>
+  </si>
+  <si>
+    <t>45,180</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>186,0,88</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
+  </si>
+  <si>
+    <t>DemoSummer</t>
+  </si>
+  <si>
     <t>-7,8,0</t>
   </si>
   <si>
@@ -148,39 +140,41 @@
     <t>5</t>
   </si>
   <si>
+    <t>32.25436,1.283986,20.56763</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>UI/ChronoBlade_Caster_wallpaper</t>
+  </si>
+  <si>
+    <t>0,8,-7</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>34.10933,1.165174,11.49214</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>SelectScene</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.25436,1.283986,20.56763</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,8,-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -188,7 +182,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -210,8 +204,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -229,19 +238,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -540,7 +544,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -573,14 +576,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="58.25" customWidth="1"/>
@@ -595,12 +599,12 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -639,12 +643,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -662,16 +666,16 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -683,9 +687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -694,25 +698,25 @@
         <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -724,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -745,16 +749,16 @@
         <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -766,9 +770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
@@ -781,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -808,9 +812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
@@ -820,25 +824,25 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -850,9 +854,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7">
@@ -862,25 +866,25 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -893,9 +897,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -70,9 +75,6 @@
   </si>
   <si>
     <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
   </si>
   <si>
     <t>villageScene</t>
@@ -163,18 +165,15 @@
   <si>
     <t>SelectScene</t>
   </si>
+  <si>
+    <t>20,0,-137</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -182,7 +181,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -204,23 +203,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -238,14 +222,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -544,6 +533,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -576,15 +566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="58.25" customWidth="1"/>
@@ -599,7 +588,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -657,25 +646,25 @@
         <v>200</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -687,9 +676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -698,25 +687,25 @@
         <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -728,9 +717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4">
@@ -740,25 +729,25 @@
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -770,9 +759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
@@ -782,25 +771,25 @@
         <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -812,9 +801,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
@@ -824,25 +813,25 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -854,9 +843,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7">
@@ -866,25 +855,25 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -897,7 +886,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>../../NFDataCfg/Ini/NFZoneServer/Scene/PioneerNoob/</t>
-  </si>
-  <si>
     <t>villageScene</t>
   </si>
   <si>
@@ -167,13 +164,142 @@
   </si>
   <si>
     <t>20,0,-137</t>
+  </si>
+  <si>
+    <t>../../NFDataCfg/Ini/Scene/1.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../NFDataCfg/Ini/Scene/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../NFDataCfg/Ini/Scene/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../NFDataCfg/Ini/Scene/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../NFDataCfg/Ini/Scene/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>../../NFDataCfg/Ini/Scene/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -183,6 +309,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -208,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +352,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -646,25 +782,25 @@
         <v>200</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -678,7 +814,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -687,25 +826,25 @@
         <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -719,9 +858,11 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C4">
         <v>10</v>
       </c>
@@ -729,25 +870,25 @@
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -761,9 +902,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C5">
         <v>10</v>
       </c>
@@ -771,25 +914,25 @@
         <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -803,9 +946,11 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C6">
         <v>10</v>
       </c>
@@ -813,25 +958,25 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -845,9 +990,11 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C7">
         <v>10</v>
       </c>
@@ -855,25 +1002,25 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -888,7 +1035,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19455" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>ID</t>
   </si>
@@ -71,7 +66,16 @@
     <t>ActorID</t>
   </si>
   <si>
+    <t>Sync</t>
+  </si>
+  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>../../NFDataCfg/Ini/Scene/1.xml</t>
+  </si>
+  <si>
+    <t>20,0,-137</t>
   </si>
   <si>
     <t>villageScene</t>
@@ -109,68 +113,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>186,0,88</t>
-  </si>
-  <si>
-    <t>Demo1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
-  </si>
-  <si>
-    <t>DemoSummer</t>
-  </si>
-  <si>
-    <t>-7,8,0</t>
-  </si>
-  <si>
-    <t>45,90</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>DemoWinter</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>32.25436,1.283986,20.56763</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>UI/ChronoBlade_Caster_wallpaper</t>
-  </si>
-  <si>
-    <t>0,8,-7</t>
-  </si>
-  <si>
-    <t>45,0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>34.10933,1.165174,11.49214</t>
-  </si>
-  <si>
-    <t>SelectScene</t>
-  </si>
-  <si>
-    <t>20,0,-137</t>
-  </si>
-  <si>
-    <t>../../NFDataCfg/Ini/Scene/1.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>../../NFDataCfg/Ini/Scene/</t>
     </r>
     <r>
@@ -178,7 +127,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -192,10 +140,24 @@
       </rPr>
       <t>.xml</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186,0,88</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>../../NFDataCfg/Ini/Scene/</t>
     </r>
     <r>
@@ -203,7 +165,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -217,10 +178,30 @@
       </rPr>
       <t>.xml</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
+  </si>
+  <si>
+    <t>DemoSummer</t>
+  </si>
+  <si>
+    <t>-7,8,0</t>
+  </si>
+  <si>
+    <t>45,90</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>../../NFDataCfg/Ini/Scene/</t>
     </r>
     <r>
@@ -228,7 +209,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -242,10 +222,21 @@
       </rPr>
       <t>.xml</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoWinter</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>../../NFDataCfg/Ini/Scene/</t>
     </r>
     <r>
@@ -253,7 +244,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -267,10 +257,33 @@
       </rPr>
       <t>.xml</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.25436,1.283986,20.56763</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>UI/ChronoBlade_Caster_wallpaper</t>
+  </si>
+  <si>
+    <t>0,8,-7</t>
+  </si>
+  <si>
+    <t>45,0</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>../../NFDataCfg/Ini/Scene/</t>
     </r>
     <r>
@@ -278,7 +291,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -292,14 +304,25 @@
       </rPr>
       <t>.xml</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.10933,1.165174,11.49214</t>
+  </si>
+  <si>
+    <t>SelectScene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -307,27 +330,358 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -335,9 +689,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -354,23 +950,61 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -420,71 +1054,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,14 +1336,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="58.25" customWidth="1"/>
@@ -724,7 +1359,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,13 +1402,16 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -782,25 +1420,25 @@
         <v>200</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -811,13 +1449,16 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -826,25 +1467,25 @@
         <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -855,13 +1496,16 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -870,25 +1514,25 @@
         <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -899,13 +1543,16 @@
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -914,25 +1561,25 @@
         <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -943,13 +1590,16 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -958,25 +1608,25 @@
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>500</v>
@@ -987,13 +1637,16 @@
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1002,25 +1655,25 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -1031,11 +1684,13 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -75,7 +75,7 @@
     <t>../../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
-    <t>20,0,-137</t>
+    <t>12,4,0</t>
   </si>
   <si>
     <t>villageScene</t>
@@ -317,12 +317,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -331,15 +331,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,137 +383,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,181 +496,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,15 +681,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -714,17 +699,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +719,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,17 +751,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -787,157 +766,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,9 +942,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,8 +1331,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1457,7 +1448,7 @@
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C3">
@@ -1504,7 +1495,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4">
@@ -1551,7 +1542,7 @@
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5">
@@ -1598,7 +1589,7 @@
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C6">
@@ -1645,7 +1636,7 @@
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C7">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8985"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,63 +22,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>SceneName</t>
+  </si>
+  <si>
+    <t>SceneShowName</t>
+  </si>
+  <si>
+    <t>MaxGroup</t>
+  </si>
+  <si>
+    <t>MaxGroupPlayers</t>
   </si>
   <si>
     <t>FilePath</t>
   </si>
   <si>
-    <t>MaxGroup</t>
-  </si>
-  <si>
-    <t>MaxGroupPlayers</t>
-  </si>
-  <si>
     <t>RelivePos</t>
   </si>
   <si>
-    <t>SceneName</t>
-  </si>
-  <si>
-    <t>SceneShowName</t>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>SoundList</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>CanClone</t>
+  </si>
+  <si>
+    <t>ActorID</t>
   </si>
   <si>
     <t>LoadingUI</t>
   </si>
   <si>
-    <t>SoundList</t>
-  </si>
-  <si>
     <t>CamOffestPos</t>
   </si>
   <si>
     <t>CamOffestRot</t>
   </si>
   <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>CanClone</t>
-  </si>
-  <si>
-    <t>ActorID</t>
-  </si>
-  <si>
-    <t>Sync</t>
+    <t>SyncObject</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>最大组</t>
+  </si>
+  <si>
+    <t>每组最大人数</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+  </si>
+  <si>
+    <t>复活坐标列表</t>
+  </si>
+  <si>
+    <t>场景宽度</t>
+  </si>
+  <si>
+    <t>场景背景音乐列表</t>
+  </si>
+  <si>
+    <t>多人实时副本</t>
+  </si>
+  <si>
+    <t>是否副本</t>
+  </si>
+  <si>
+    <t>acctorid</t>
+  </si>
+  <si>
+    <t>是否同步对象</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>villageScene</t>
+  </si>
+  <si>
     <t>../../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
-    <t>20,0,-137</t>
-  </si>
-  <si>
-    <t>villageScene</t>
+    <t>12,4,0</t>
+  </si>
+  <si>
+    <t>Sources/Music/Town</t>
   </si>
   <si>
     <r>
@@ -101,9 +161,6 @@
     </r>
   </si>
   <si>
-    <t>Sources/Music/Town</t>
-  </si>
-  <si>
     <t>0,8,7</t>
   </si>
   <si>
@@ -111,6 +168,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Demo1</t>
   </si>
   <si>
     <r>
@@ -145,10 +205,10 @@
     <t>186,0,88</t>
   </si>
   <si>
-    <t>Demo1</t>
-  </si>
-  <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>DemoSummer</t>
   </si>
   <si>
     <r>
@@ -183,9 +243,6 @@
     <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
   </si>
   <si>
-    <t>DemoSummer</t>
-  </si>
-  <si>
     <t>-7,8,0</t>
   </si>
   <si>
@@ -193,6 +250,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>DemoWinter</t>
   </si>
   <si>
     <r>
@@ -224,10 +284,10 @@
     </r>
   </si>
   <si>
-    <t>DemoWinter</t>
-  </si>
-  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
   <si>
     <r>
@@ -262,9 +322,6 @@
     <t>32.25436,1.283986,20.56763</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>UI/ChronoBlade_Caster_wallpaper</t>
   </si>
   <si>
@@ -275,6 +332,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>SelectScene</t>
   </si>
   <si>
     <r>
@@ -308,27 +368,18 @@
   <si>
     <t>34.10933,1.165174,11.49214</t>
   </si>
-  <si>
-    <t>SelectScene</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -352,16 +403,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,7 +449,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,9 +471,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,23 +493,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,22 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -456,19 +524,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,16 +537,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,55 +547,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,127 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,16 +763,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +793,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -744,17 +822,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,179 +850,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,6 +1074,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1338,13 +1408,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="58.25" customWidth="1"/>
@@ -1357,334 +1427,646 @@
     <col min="9" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="9.375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="15" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E8">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2">
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
         <v>500</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
+    <row r="9" spans="1:16">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3">
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
         <v>500</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
+    <row r="10" spans="1:16">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E10">
         <v>200</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4">
+      <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10">
         <v>500</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="E11">
         <v>200</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5">
+      <c r="F11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
         <v>500</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
+    <row r="12" spans="1:16">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E12">
         <v>200</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>500</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="O13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6">
-        <v>500</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>500</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="P13">
         <v>1</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -374,13 +374,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -395,10 +402,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,8 +430,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,9 +483,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,7 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,55 +523,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,31 +538,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -565,19 +572,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,13 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,25 +734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,92 +750,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -753,26 +760,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +861,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,11 +933,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,165 +952,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1410,20 +1528,20 @@
   <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="58.25" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="9.375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
@@ -1431,347 +1549,347 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="b">
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="b">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:16">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
@@ -1786,16 +1904,16 @@
       <c r="E8">
         <v>200</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H8">
         <v>500</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J8">
@@ -1807,13 +1925,13 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="P8">
@@ -1821,13 +1939,13 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D9">
@@ -1836,16 +1954,16 @@
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H9">
         <v>500</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J9">
@@ -1857,13 +1975,13 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="P9">
@@ -1871,7 +1989,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -1886,16 +2004,16 @@
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H10">
         <v>500</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J10">
@@ -1907,13 +2025,13 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="12" t="s">
         <v>51</v>
       </c>
       <c r="P10">
@@ -1921,7 +2039,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
@@ -1936,16 +2054,16 @@
       <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J11">
@@ -1957,13 +2075,13 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="12" t="s">
         <v>41</v>
       </c>
       <c r="P11">
@@ -1971,7 +2089,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="s">
@@ -1986,16 +2104,16 @@
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J12">
@@ -2007,13 +2125,13 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="12" t="s">
         <v>61</v>
       </c>
       <c r="P12">
@@ -2021,7 +2139,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
@@ -2036,16 +2154,16 @@
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J13">
@@ -2057,13 +2175,13 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="P13">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>Id</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -374,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -402,15 +405,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,21 +422,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,14 +436,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,76 +547,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -572,19 +575,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,37 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,120 +749,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -799,6 +802,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -844,80 +860,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,153 +904,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,31 +1136,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1526,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1549,107 +1578,107 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:16">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:16">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="8" t="b">
@@ -1699,7 +1728,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="8" t="b">
@@ -1749,7 +1778,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="8" t="b">
@@ -1799,7 +1828,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="8" t="b">
@@ -1848,105 +1877,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:16">
+    <row r="7" s="3" customFormat="1" spans="1:16">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="12" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8">
-        <v>500</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1954,17 +1983,17 @@
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>44</v>
+      <c r="F9" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>500</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1976,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1990,13 +2019,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2005,16 +2034,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>500</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2026,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -2040,13 +2069,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2055,16 +2084,16 @@
         <v>200</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2076,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -2090,13 +2119,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2105,16 +2134,16 @@
         <v>200</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2125,14 +2154,14 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>59</v>
+      <c r="M12" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -2140,13 +2169,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2155,16 +2184,16 @@
         <v>200</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2176,19 +2205,75 @@
         <v>0</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -371,18 +376,16 @@
   <si>
     <t>34.10933,1.165174,11.49214</t>
   </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -397,158 +400,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,194 +424,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -878,251 +549,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,58 +599,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1553,31 +943,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="11" width="27.25" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="9" max="11" width="27.26953125" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="15" width="13.25" customWidth="1"/>
+    <col min="14" max="15" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1677,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:16">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:16">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:16">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:16">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1877,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1927,105 +1316,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>500</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2033,11 +1422,11 @@
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>45</v>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>500</v>
@@ -2067,15 +1456,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2084,10 +1473,10 @@
         <v>200</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>500</v>
@@ -2108,24 +1497,24 @@
         <v>40</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2134,7 +1523,7 @@
         <v>200</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>50</v>
@@ -2158,24 +1547,24 @@
         <v>40</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2184,10 +1573,10 @@
         <v>200</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>500</v>
@@ -2204,28 +1593,28 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>60</v>
+      <c r="M13" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -2234,10 +1623,10 @@
         <v>200</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>500</v>
@@ -2258,23 +1647,74 @@
         <v>60</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>500</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:P7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
+    <workbookView windowWidth="24582" windowHeight="12368"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>Id</t>
   </si>
@@ -101,6 +96,9 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Upload</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -140,7 +138,7 @@
     <t>villageScene</t>
   </si>
   <si>
-    <t>../../NFDataCfg/Ini/Scene/1.xml</t>
+    <t>../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
     <t>12,4,0</t>
@@ -181,33 +179,7 @@
     <t>Demo1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
+    <t>../NFDataCfg/Ini/Scene/2.xml</t>
   </si>
   <si>
     <t>186,0,88</t>
@@ -219,33 +191,7 @@
     <t>DemoSummer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
+    <t>../NFDataCfg/Ini/Scene/3.xml</t>
   </si>
   <si>
     <t>28.34387,5.843068,130.1724;133.5562,5.843068,32.58513</t>
@@ -263,33 +209,7 @@
     <t>DemoWinter</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
+    <t>../NFDataCfg/Ini/Scene/4.xml</t>
   </si>
   <si>
     <t>5</t>
@@ -298,33 +218,7 @@
     <t>City</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
+    <t>../NFDataCfg/Ini/Scene/5.xml</t>
   </si>
   <si>
     <t>32.25436,1.283986,20.56763</t>
@@ -345,47 +239,23 @@
     <t>SelectScene</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>../../NFDataCfg/Ini/Scene/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
+    <t>../NFDataCfg/Ini/Scene/6.xml</t>
   </si>
   <si>
     <t>34.10933,1.165174,11.49214</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -400,12 +270,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,8 +440,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -549,9 +751,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -599,19 +1043,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -938,35 +1421,35 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="7.45045045045045" customWidth="1"/>
+    <col min="2" max="2" width="13.7297297297297" customWidth="1"/>
+    <col min="3" max="3" width="12.7297297297297" customWidth="1"/>
+    <col min="4" max="4" width="21.4504504504505" customWidth="1"/>
+    <col min="5" max="5" width="17.0900900900901" customWidth="1"/>
+    <col min="6" max="6" width="31.9459459459459" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" customWidth="1"/>
-    <col min="9" max="11" width="27.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="8.90990990990991" customWidth="1"/>
+    <col min="9" max="11" width="27.2702702702703" customWidth="1"/>
+    <col min="12" max="12" width="9.36036036036036" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="15" width="13.26953125" customWidth="1"/>
+    <col min="14" max="15" width="13.2702702702703" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:16">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" spans="1:16">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:16">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="1:16">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1266,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" ht="14.15" spans="1:16">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1316,9 +1799,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" ht="14.15" spans="1:16">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -1366,55 +1849,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="4" customFormat="1" ht="14.85" spans="1:16">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.15" spans="1:16">
       <c r="A10" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1423,16 +1906,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>500</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1444,27 +1927,27 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.15" spans="1:16">
       <c r="A11" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1473,16 +1956,16 @@
         <v>200</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1494,27 +1977,27 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.15" spans="1:16">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1523,16 +2006,16 @@
         <v>200</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1544,27 +2027,27 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" ht="14.15" spans="1:16">
       <c r="A13" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1573,16 +2056,16 @@
         <v>200</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1594,27 +2077,27 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1623,16 +2106,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1644,27 +2127,27 @@
         <v>0</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1673,16 +2156,16 @@
         <v>200</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>500</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1694,27 +2177,26 @@
         <v>0</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>Id</t>
   </si>
@@ -244,16 +244,136 @@
   <si>
     <t>34.10933,1.165174,11.49214</t>
   </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>War100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>War101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>War102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>War103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>War104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>War105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>War106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>War107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>War108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>War109</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Guild200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Guild201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Guild202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Guild203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Guild204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Guild205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Guild206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Guild207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Guild208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Guild209</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -284,9 +404,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,8 +434,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +458,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -330,9 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,9 +497,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,41 +519,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,8 +533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,7 +562,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +658,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,25 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,60 +736,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -557,72 +743,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +872,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,7 +920,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,17 +936,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,38 +969,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,130 +992,130 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1427,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K10" sqref="K10:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1918,10 +2038,10 @@
         <v>40</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1968,10 +2088,10 @@
         <v>40</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2018,10 +2138,10 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2068,10 +2188,10 @@
         <v>40</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2118,10 +2238,10 @@
         <v>40</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2168,10 +2288,10 @@
         <v>40</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2186,6 +2306,1006 @@
         <v>43</v>
       </c>
       <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19">
+        <v>500</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20">
+        <v>500</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>500</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23">
+        <v>500</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <v>500</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25">
+        <v>500</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26">
+        <v>500</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27">
+        <v>500</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28">
+        <v>500</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>200</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29">
+        <v>500</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>200</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30">
+        <v>500</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>500</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32">
+        <v>500</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33">
+        <v>500</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>200</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34">
+        <v>500</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35">
+        <v>500</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35">
         <v>1</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24582" windowHeight="12368"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -370,10 +370,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -392,21 +392,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -414,77 +460,29 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -492,21 +490,38 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -514,29 +529,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -562,7 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +580,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +622,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +658,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,19 +706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,109 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,35 +872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -920,7 +891,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,21 +927,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -969,153 +940,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,55 +1164,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1541,6 +1541,7 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1549,24 +1550,24 @@
   <sheetPr/>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.45045045045045" customWidth="1"/>
-    <col min="2" max="2" width="13.7297297297297" customWidth="1"/>
-    <col min="3" max="3" width="12.7297297297297" customWidth="1"/>
-    <col min="4" max="4" width="21.4504504504505" customWidth="1"/>
-    <col min="5" max="5" width="17.0900900900901" customWidth="1"/>
-    <col min="6" max="6" width="31.9459459459459" customWidth="1"/>
+    <col min="1" max="1" width="7.45" customWidth="1"/>
+    <col min="2" max="2" width="13.7333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="21.45" customWidth="1"/>
+    <col min="5" max="5" width="17.0916666666667" customWidth="1"/>
+    <col min="6" max="6" width="31.95" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.90990990990991" customWidth="1"/>
-    <col min="9" max="11" width="27.2702702702703" customWidth="1"/>
-    <col min="12" max="12" width="9.36036036036036" customWidth="1"/>
+    <col min="8" max="8" width="8.90833333333333" customWidth="1"/>
+    <col min="9" max="11" width="27.2666666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.35833333333333" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="15" width="13.2702702702703" customWidth="1"/>
+    <col min="14" max="15" width="13.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
@@ -1869,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.15" spans="1:16">
+    <row r="7" s="3" customFormat="1" spans="1:16">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="14.15" spans="1:16">
+    <row r="8" s="3" customFormat="1" spans="1:16">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.85" spans="1:16">
+    <row r="9" s="4" customFormat="1" ht="14.25" spans="1:16">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="14.15" spans="1:16">
+    <row r="10" spans="1:16">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2059,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.15" spans="1:16">
+    <row r="11" spans="1:16">
       <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2109,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.15" spans="1:16">
+    <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
         <v>48</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2159,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.15" spans="1:16">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2241,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2291,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2341,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2391,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2441,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2491,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2541,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2591,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2641,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2691,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2741,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2791,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2841,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2891,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2941,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2991,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3041,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3091,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3141,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3191,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3241,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3291,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
